--- a/tests/testData/files/alias_without_page_id.xlsx
+++ b/tests/testData/files/alias_without_page_id.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7-alpha.1%2Bnb</t>
   </si>
   <si>
-    <t xml:space="preserve">「Pickles 2」 Sitemap</t>
+    <t xml:space="preserve">「Pickles 2」 Sitemap (Alias Without Page-ID)</t>
   </si>
   <si>
     <t xml:space="preserve">Exported: 2017-04-12 01:58:20</t>
@@ -37,102 +37,24 @@
     <t xml:space="preserve">ページタイトル</t>
   </si>
   <si>
-    <t xml:space="preserve">ページタイトル(H1表示用)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル(リンク表示用)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル(パン屑表示用)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページタイトル(タイトルタグ用)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ページのパス</t>
   </si>
   <si>
-    <t xml:space="preserve">コンテンツファイルの格納先</t>
-  </si>
-  <si>
     <t xml:space="preserve">一覧表示フラグ</t>
   </si>
   <si>
-    <t xml:space="preserve">レイアウト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">表示順</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metaキーワード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metaディスクリプション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カテゴリトップフラグ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ロール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンテンツの処理方法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">削除フラグ</t>
-  </si>
-  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">title_h1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_breadcrumb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_full</t>
-  </si>
-  <si>
     <t xml:space="preserve">path</t>
   </si>
   <si>
-    <t xml:space="preserve">content</t>
-  </si>
-  <si>
     <t xml:space="preserve">list_flg</t>
   </si>
   <si>
-    <t xml:space="preserve">layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_top_flg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proc_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**delete_flg</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;HOME&gt;</t>
   </si>
   <si>
@@ -190,7 +112,16 @@
     <t xml:space="preserve">Category 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Category 3 Page 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">/category3/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category 3 Page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/category3/page2.html</t>
   </si>
   <si>
     <t xml:space="preserve">Category 4</t>
@@ -215,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -289,13 +220,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
       <family val="0"/>
@@ -503,7 +427,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -540,11 +464,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,14 +561,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,15 +576,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="10" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -678,19 +592,6 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="36.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -719,473 +620,244 @@
       <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
+      <c r="G20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tests/testData/files/alias_without_page_id.xlsx
+++ b/tests/testData/files/alias_without_page_id.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7-alpha.1%2Bnb</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t xml:space="preserve">/category5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data:datascheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript:alert(123);</t>
   </si>
   <si>
     <t xml:space="preserve">EndOfData</t>
@@ -146,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -170,48 +182,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006600"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF996600"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCC0000"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="メイリオ"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
@@ -233,54 +203,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -300,28 +228,19 @@
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -354,7 +273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -378,135 +297,71 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -534,7 +389,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -561,19 +416,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.95"/>
@@ -847,23 +702,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G22" r:id="rId1" display="data:datascheme"/>
+    <hyperlink ref="G23" r:id="rId2" display="javascript:alert(123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
